--- a/public/template/template_mhs.xlsx
+++ b/public/template/template_mhs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadam/Herd/ummaluku/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBC718A-36EF-D147-A94E-FB503F9ACF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C846F7-43BE-5D4B-857E-C1D68648501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{6F510672-70E3-054B-8C6B-F3B599CAE681}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>active</t>
   </si>
   <si>
-    <t>Tiana</t>
-  </si>
-  <si>
-    <t>tiana@gmail.com</t>
+    <t>Yufani</t>
+  </si>
+  <si>
+    <t>yufani@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>202111004</v>
+        <v>202111005</v>
       </c>
       <c r="D2">
         <v>2</v>
